--- a/GameDesign/Class/Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
+++ b/GameDesign/Class/Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\My_Dev\BattleForVoxturia\GameDesign\Class\5-Elementalist\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\My_Dev\BattleForVoxturia\GameDesign\Class\Done\5-Elementalist\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843"/>
   </bookViews>
   <sheets>
     <sheet name="1-Pillar" sheetId="1" r:id="rId1"/>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -1330,7 +1330,7 @@
   <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,7 +1817,7 @@
   <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GameDesign/Class/Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
+++ b/GameDesign/Class/Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1-Pillar" sheetId="1" r:id="rId1"/>
@@ -200,9 +200,6 @@
     <t>[[Area of effect: - Single cell]]</t>
   </si>
   <si>
-    <t>Teleport the player at the targeted cell.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>'Air'' (active) effect: [[ -1 Range * (''Air'' (inactive) effect lvl) ]]</t>
+  </si>
+  <si>
+    <t>Teleport the caster at the targeted cell.</t>
   </si>
 </sst>
 </file>
@@ -841,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1021,7 +1021,7 @@
     <row r="30" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="1"/>
       <c r="C30" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="1"/>
     </row>
@@ -1052,7 +1052,7 @@
     <row r="35" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="1"/>
       <c r="C35" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" s="1"/>
     </row>
@@ -1083,7 +1083,7 @@
     <row r="40" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="1"/>
       <c r="C40" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D40" s="1"/>
     </row>
@@ -1114,7 +1114,7 @@
     <row r="45" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B45" s="1"/>
       <c r="C45" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D45" s="1"/>
     </row>
@@ -1154,7 +1154,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1166,7 +1166,7 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1192,7 +1192,7 @@
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1237,7 +1237,7 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1249,7 +1249,7 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1261,28 +1261,28 @@
     <row r="20" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="C20" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
       <c r="C23" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -1977,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,7 +1998,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2010,7 +2010,7 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2022,7 +2022,7 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -2098,7 +2098,7 @@
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="3" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -2166,7 +2166,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2178,7 +2178,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2228,7 +2228,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -2240,7 +2240,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2252,7 +2252,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2320,7 +2320,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2332,7 +2332,7 @@
     <row r="5" spans="2:4" ht="97.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2344,21 +2344,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2377,7 +2377,7 @@
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -2396,14 +2396,14 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -2426,24 +2426,24 @@
     </row>
     <row r="20" spans="2:4" ht="39" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -2473,7 +2473,7 @@
     <row r="28" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B28" s="1"/>
       <c r="C28" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -2513,7 +2513,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2525,7 +2525,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2537,14 +2537,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2563,7 +2563,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -2582,14 +2582,14 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2601,7 +2601,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2613,35 +2613,35 @@
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="C20" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
       <c r="C23" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -2671,28 +2671,28 @@
     <row r="29" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B29" s="1"/>
       <c r="C29" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B30" s="1"/>
       <c r="C30" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B31" s="1"/>
       <c r="C31" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B32" s="1"/>
       <c r="C32" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1"/>
     </row>

--- a/GameDesign/Class/Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
+++ b/GameDesign/Class/Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1-Pillar" sheetId="1" r:id="rId1"/>
@@ -842,7 +842,7 @@
   <dimension ref="B2:D46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D30"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -1330,7 +1330,7 @@
   <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,7 +1977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
